--- a/biology/Zoologie/Cyclocorus_lineatus/Cyclocorus_lineatus.xlsx
+++ b/biology/Zoologie/Cyclocorus_lineatus/Cyclocorus_lineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocorus lineatus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocorus lineatus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines[1]. Elle se rencontre à Lubang, Luçon, Mindoro, Polillo, Negros, Cebu et Panay.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre à Lubang, Luçon, Mindoro, Polillo, Negros, Cebu et Panay.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Cyclocorus lineatus alcalai Leviton, 1967
 Cyclocorus lineatus lineatus (Reinhardt, 1843)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique lineatus vient du latin lineatus, rayé, en référence à l'aspect de ce serpent[1]. La sous-espèce Cyclocorus lineatus alcalai est nommée en l'honneur d'Angel Chua Alcala[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique lineatus vient du latin lineatus, rayé, en référence à l'aspect de ce serpent. La sous-espèce Cyclocorus lineatus alcalai est nommée en l'honneur d'Angel Chua Alcala
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Leviton 1967 "1965" : Contributions to a review of Philippine snakes, IX. The snakes of the genus Cyclocorus. Philippine Journal of Science, vol. 94, no 4, p. 519-533 (texte intégral).
 Reinhardt, 1843 : Beskrivelse af nogle nye Slangearter. Det Kongelige Danske videnskabernes Selskabs Skrifter, vol. 10, p. 233-279 (texte intégral).</t>
